--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.7542129709894</v>
+        <v>485.36602322511</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.5863824229011</v>
+        <v>664.0992058142987</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.553576802214</v>
+        <v>600.7185096804707</v>
       </c>
       <c r="AD2" t="n">
-        <v>436754.2129709895</v>
+        <v>485366.02322511</v>
       </c>
       <c r="AE2" t="n">
-        <v>597586.3824229011</v>
+        <v>664099.2058142987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.081222255054548e-06</v>
+        <v>3.850806065867849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.301432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>540553.576802214</v>
+        <v>600718.5096804707</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.862113358271</v>
+        <v>238.3635743447335</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.1966490245799</v>
+        <v>326.1395582770399</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.8368284861866</v>
+        <v>295.0132565749211</v>
       </c>
       <c r="AD3" t="n">
-        <v>201862.113358271</v>
+        <v>238363.5743447334</v>
       </c>
       <c r="AE3" t="n">
-        <v>276196.6490245799</v>
+        <v>326139.5582770399</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.276214119145131e-06</v>
+        <v>6.061853880548331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.638671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>249836.8284861866</v>
+        <v>295013.2565749211</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.1567222279855</v>
+        <v>208.462672109321</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.9713517734064</v>
+        <v>285.2278247038623</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.9235596042391</v>
+        <v>258.0060814339758</v>
       </c>
       <c r="AD4" t="n">
-        <v>184156.7222279855</v>
+        <v>208462.672109321</v>
       </c>
       <c r="AE4" t="n">
-        <v>251971.3517734064</v>
+        <v>285227.8247038623</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.467614488032207e-06</v>
+        <v>6.415994674367768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>227923.5596042391</v>
+        <v>258006.0814339758</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.6627655444609</v>
+        <v>337.868650596592</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.1165483567733</v>
+        <v>462.2867934591301</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.593846197828</v>
+        <v>418.1667907149796</v>
       </c>
       <c r="AD2" t="n">
-        <v>302662.7655444609</v>
+        <v>337868.650596592</v>
       </c>
       <c r="AE2" t="n">
-        <v>414116.5483567733</v>
+        <v>462286.7934591301</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585699937454067e-06</v>
+        <v>4.928743138060927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0791015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>374593.8461978281</v>
+        <v>418166.7907149796</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8406278309146</v>
+        <v>198.2828007503282</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.2246604222624</v>
+        <v>271.2992756062673</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.3933945855505</v>
+        <v>245.4068535134094</v>
       </c>
       <c r="AD3" t="n">
-        <v>174840.6278309146</v>
+        <v>198282.8007503282</v>
       </c>
       <c r="AE3" t="n">
-        <v>239224.6604222624</v>
+        <v>271299.2756062673</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.506163140320499e-06</v>
+        <v>6.683288060018292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.484049479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216393.3945855505</v>
+        <v>245406.8535134094</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.3393808936354</v>
+        <v>198.781553813049</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.9070763661088</v>
+        <v>271.9816915501137</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.0106817094933</v>
+        <v>246.0241406373521</v>
       </c>
       <c r="AD4" t="n">
-        <v>175339.3808936354</v>
+        <v>198781.553813049</v>
       </c>
       <c r="AE4" t="n">
-        <v>239907.0763661088</v>
+        <v>271981.6915501137</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.507032413019954e-06</v>
+        <v>6.684945027940393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.482421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>217010.6817094933</v>
+        <v>246024.1406373521</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.5050514277468</v>
+        <v>194.4320259186793</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.3972658659766</v>
+        <v>266.0304755974122</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.7404040009517</v>
+        <v>240.6409003825904</v>
       </c>
       <c r="AD2" t="n">
-        <v>173505.0514277468</v>
+        <v>194432.0259186793</v>
       </c>
       <c r="AE2" t="n">
-        <v>237397.2658659766</v>
+        <v>266030.4755974122</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.364758738028279e-06</v>
+        <v>7.166055544765384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.213216145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214740.4040009517</v>
+        <v>240640.9003825905</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.2825161537721</v>
+        <v>200.112563437801</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.8833185852469</v>
+        <v>273.8028376386989</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0390158992922</v>
+        <v>247.671479099238</v>
       </c>
       <c r="AD2" t="n">
-        <v>167282.5161537721</v>
+        <v>200112.563437801</v>
       </c>
       <c r="AE2" t="n">
-        <v>228883.3185852469</v>
+        <v>273802.8376386989</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448161738630917e-06</v>
+        <v>7.00096046811038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.866536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>207039.0158992922</v>
+        <v>247671.4790992379</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.2052290917459</v>
+        <v>198.0352763757749</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.0410827835469</v>
+        <v>270.9606018369989</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.4680390934024</v>
+        <v>245.1005022933482</v>
       </c>
       <c r="AD3" t="n">
-        <v>165205.2290917459</v>
+        <v>198035.2763757749</v>
       </c>
       <c r="AE3" t="n">
-        <v>226041.0827835469</v>
+        <v>270960.6018369989</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.489507098113947e-06</v>
+        <v>7.084905842260792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8095703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>204468.0390934024</v>
+        <v>245100.5022933482</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.285589818039</v>
+        <v>207.425054709019</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.5699652771544</v>
+        <v>283.808110800321</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.4194282402576</v>
+        <v>256.721863032807</v>
       </c>
       <c r="AD2" t="n">
-        <v>177285.589818039</v>
+        <v>207425.054709019</v>
       </c>
       <c r="AE2" t="n">
-        <v>242569.9652771544</v>
+        <v>283808.110800321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159566070808899e-06</v>
+        <v>7.03573650047834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.7666015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>219419.4282402576</v>
+        <v>256721.863032807</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.5830814657679</v>
+        <v>364.1295211025229</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.5818681239382</v>
+        <v>498.2180750331853</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.6744056223037</v>
+        <v>450.6688412054773</v>
       </c>
       <c r="AD2" t="n">
-        <v>328583.0814657679</v>
+        <v>364129.5211025228</v>
       </c>
       <c r="AE2" t="n">
-        <v>449581.8681239383</v>
+        <v>498218.0750331853</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.45249253223275e-06</v>
+        <v>4.637083777514484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.3525390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>406674.4056223037</v>
+        <v>450668.8412054773</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.6315855950957</v>
+        <v>201.3007949042585</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.0433719635795</v>
+        <v>275.4286283521778</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.8476536569609</v>
+        <v>249.1421066288345</v>
       </c>
       <c r="AD3" t="n">
-        <v>177631.5855950956</v>
+        <v>201300.7949042585</v>
       </c>
       <c r="AE3" t="n">
-        <v>243043.3719635796</v>
+        <v>275428.6283521778</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.488355235527686e-06</v>
+        <v>6.595655342585977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>219847.6536569609</v>
+        <v>249142.1066288345</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.8629083353466</v>
+        <v>201.5321176445094</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.3598779420297</v>
+        <v>275.745134330628</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.1339527490468</v>
+        <v>249.4284057209204</v>
       </c>
       <c r="AD4" t="n">
-        <v>177862.9083353466</v>
+        <v>201532.1176445094</v>
       </c>
       <c r="AE4" t="n">
-        <v>243359.8779420297</v>
+        <v>275745.134330628</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.496587003452594e-06</v>
+        <v>6.611219670306928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.454752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>220133.9527490468</v>
+        <v>249428.4057209204</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.2045191188844</v>
+        <v>221.5180347272597</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.9827025232699</v>
+        <v>303.0907477996666</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.884002493067</v>
+        <v>274.1641922202922</v>
       </c>
       <c r="AD2" t="n">
-        <v>192204.5191188844</v>
+        <v>221518.0347272597</v>
       </c>
       <c r="AE2" t="n">
-        <v>262982.7025232699</v>
+        <v>303090.7477996666</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.983834930157355e-06</v>
+        <v>6.840640742949653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.248372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>237884.0024930669</v>
+        <v>274164.1922202922</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.8633406839722</v>
+        <v>255.8786204833505</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.5632106434639</v>
+        <v>350.1044171131844</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.5915638733835</v>
+        <v>316.6909429186421</v>
       </c>
       <c r="AD2" t="n">
-        <v>221863.3406839722</v>
+        <v>255878.6204833505</v>
       </c>
       <c r="AE2" t="n">
-        <v>303563.2106434639</v>
+        <v>350104.4171131843</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051577197793522e-06</v>
+        <v>5.98104913507928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3076171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>274591.5638733835</v>
+        <v>316690.9429186421</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.0014149438733</v>
+        <v>191.8773371317586</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.235191742325</v>
+        <v>262.5350376942341</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.1664295831341</v>
+        <v>237.4790621670126</v>
       </c>
       <c r="AD3" t="n">
-        <v>169001.4149438733</v>
+        <v>191877.3371317586</v>
       </c>
       <c r="AE3" t="n">
-        <v>231235.191742325</v>
+        <v>262535.0376942341</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.520782692252887e-06</v>
+        <v>6.900685419830586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.599609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>209166.4295831341</v>
+        <v>237479.0621670127</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.5305091155632</v>
+        <v>302.4681409135769</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.0470451849901</v>
+        <v>413.8502543505651</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.1120289427885</v>
+        <v>374.3529669178264</v>
       </c>
       <c r="AD2" t="n">
-        <v>267530.5091155632</v>
+        <v>302468.1409135769</v>
       </c>
       <c r="AE2" t="n">
-        <v>366047.0451849901</v>
+        <v>413850.2543505651</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722096215174823e-06</v>
+        <v>5.233782780342534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.830078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>331112.0289427885</v>
+        <v>374352.9669178264</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3154426383003</v>
+        <v>196.6925380248807</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.1378347553066</v>
+        <v>269.1234079878711</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5057326313701</v>
+        <v>243.4386476466629</v>
       </c>
       <c r="AD3" t="n">
-        <v>173315.4426383003</v>
+        <v>196692.5380248807</v>
       </c>
       <c r="AE3" t="n">
-        <v>237137.8347553066</v>
+        <v>269123.4079878711</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.511190157054967e-06</v>
+        <v>6.75097613378161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.519856770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214505.7326313701</v>
+        <v>243438.6476466629</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.0952572022491</v>
+        <v>437.3813381051557</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.3772965753737</v>
+        <v>598.4444426982757</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.567954586448</v>
+        <v>541.329745009202</v>
       </c>
       <c r="AD2" t="n">
-        <v>389095.2572022491</v>
+        <v>437381.3381051557</v>
       </c>
       <c r="AE2" t="n">
-        <v>532377.2965753737</v>
+        <v>598444.4426982757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.1999715798689e-06</v>
+        <v>4.098380193318006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.962890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>481567.954586448</v>
+        <v>541329.745009202</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.7891417208724</v>
+        <v>216.0601934541829</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.4143648421528</v>
+        <v>295.6230885868832</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.3699061625686</v>
+        <v>267.4092359218489</v>
       </c>
       <c r="AD3" t="n">
-        <v>191789.1417208724</v>
+        <v>216060.1934541829</v>
       </c>
       <c r="AE3" t="n">
-        <v>262414.3648421528</v>
+        <v>295623.0885868832</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.364894929270732e-06</v>
+        <v>6.268544037983059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.552408854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>237369.9061625685</v>
+        <v>267409.2359218489</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.2799577850536</v>
+        <v>206.3804173177718</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.4034798655846</v>
+        <v>282.3787918354681</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.6007617872682</v>
+        <v>255.4289562638975</v>
       </c>
       <c r="AD4" t="n">
-        <v>182279.9577850536</v>
+        <v>206380.4173177718</v>
       </c>
       <c r="AE4" t="n">
-        <v>249403.4798655846</v>
+        <v>282378.7918354681</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.476229904415535e-06</v>
+        <v>6.47595265231807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.405924479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>225600.7617872682</v>
+        <v>255428.9562638975</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1049397647606</v>
+        <v>209.3810493775157</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9545477876555</v>
+        <v>286.4843889981513</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9581839287033</v>
+        <v>259.1427209956173</v>
       </c>
       <c r="AD2" t="n">
-        <v>176104.9397647606</v>
+        <v>209381.0493775157</v>
       </c>
       <c r="AE2" t="n">
-        <v>240954.5477876555</v>
+        <v>286484.3889981513</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.368251311033003e-06</v>
+        <v>6.751650843820891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.920247395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217958.1839287033</v>
+        <v>259142.7209956173</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.9951568185316</v>
+        <v>199.2712664312867</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.1218967484863</v>
+        <v>272.6517379589821</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.4457016904603</v>
+        <v>246.6302387573744</v>
       </c>
       <c r="AD3" t="n">
-        <v>165995.1568185316</v>
+        <v>199271.2664312867</v>
       </c>
       <c r="AE3" t="n">
-        <v>227121.8967484863</v>
+        <v>272651.7379589821</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.510996258075753e-06</v>
+        <v>7.037782712602612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.720052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>205445.7016904603</v>
+        <v>246630.2387573744</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3756452555789</v>
+        <v>194.6662327778737</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.2202066322192</v>
+        <v>266.3509277546393</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5802430519599</v>
+        <v>240.9307690356893</v>
       </c>
       <c r="AD2" t="n">
-        <v>173375.6452555789</v>
+        <v>194666.2327778738</v>
       </c>
       <c r="AE2" t="n">
-        <v>237220.2066322192</v>
+        <v>266350.9277546392</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425239969422115e-06</v>
+        <v>7.165816223403759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>214580.2430519599</v>
+        <v>240930.7690356893</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.8069285542627</v>
+        <v>205.4324919623521</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.1785515852401</v>
+        <v>281.0817985446683</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.3516863112195</v>
+        <v>254.2557461924297</v>
       </c>
       <c r="AD2" t="n">
-        <v>174806.9285542627</v>
+        <v>205432.4919623521</v>
       </c>
       <c r="AE2" t="n">
-        <v>239178.5515852401</v>
+        <v>281081.7985446684</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.2799446710637e-06</v>
+        <v>7.130126648002966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4443359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>216351.6863112195</v>
+        <v>254255.7461924297</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.3823722456438</v>
+        <v>241.9195937773162</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.9591754722279</v>
+        <v>331.0050609452026</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.0950015325209</v>
+        <v>299.4144024972117</v>
       </c>
       <c r="AD2" t="n">
-        <v>213382.3722456438</v>
+        <v>241919.5937773162</v>
       </c>
       <c r="AE2" t="n">
-        <v>291959.1754722279</v>
+        <v>331005.0609452025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.693864074247512e-06</v>
+        <v>6.407428336663812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1142578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>264095.0015325209</v>
+        <v>299414.4024972117</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.5370336662145</v>
+        <v>279.1068025696783</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.5863576744896</v>
+        <v>381.8862405989335</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.6539052930383</v>
+        <v>345.4395537768755</v>
       </c>
       <c r="AD2" t="n">
-        <v>244537.0336662145</v>
+        <v>279106.8025696783</v>
       </c>
       <c r="AE2" t="n">
-        <v>334586.3576744896</v>
+        <v>381886.2405989335</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.875714558702813e-06</v>
+        <v>5.580548967629281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>302653.9052930383</v>
+        <v>345439.5537768755</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.9547170435559</v>
+        <v>194.0865705004343</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.907785848716</v>
+        <v>265.5578082537521</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.5839550590214</v>
+        <v>240.2133437468164</v>
       </c>
       <c r="AD3" t="n">
-        <v>170954.7170435559</v>
+        <v>194086.5705004343</v>
       </c>
       <c r="AE3" t="n">
-        <v>233907.785848716</v>
+        <v>265557.8082537521</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.520539534060187e-06</v>
+        <v>6.831882254391714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.552408854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>211583.9550590214</v>
+        <v>240213.3437468164</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.8783368837986</v>
+        <v>405.7403188457249</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.6649290023427</v>
+        <v>555.1518042442707</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.9319954274025</v>
+        <v>502.1688952076476</v>
       </c>
       <c r="AD2" t="n">
-        <v>357878.3368837986</v>
+        <v>405740.3188457249</v>
       </c>
       <c r="AE2" t="n">
-        <v>489664.9290023427</v>
+        <v>555151.8042442707</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321326741293489e-06</v>
+        <v>4.355719458900068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.653645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442931.9954274025</v>
+        <v>502168.8952076475</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.7559414952897</v>
+        <v>206.6443515575178</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.0547417768486</v>
+        <v>282.7399183062453</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.1898681757731</v>
+        <v>255.755617331148</v>
       </c>
       <c r="AD3" t="n">
-        <v>182755.9414952897</v>
+        <v>206644.3515575178</v>
       </c>
       <c r="AE3" t="n">
-        <v>250054.7417768486</v>
+        <v>282739.9183062453</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.44564524472106e-06</v>
+        <v>6.465381961927131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.482421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>226189.8681757732</v>
+        <v>255755.617331148</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.952570790201</v>
+        <v>203.8409808524291</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.2190463021612</v>
+        <v>278.9042228315578</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.7202460937563</v>
+        <v>252.2859952491311</v>
       </c>
       <c r="AD4" t="n">
-        <v>179952.570790201</v>
+        <v>203840.9808524291</v>
       </c>
       <c r="AE4" t="n">
-        <v>246219.0463021612</v>
+        <v>278904.2228315579</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.49081536690468e-06</v>
+        <v>6.550138828186489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.423828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>222720.2460937563</v>
+        <v>252285.9952491311</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0877303448871</v>
+        <v>293.8033543064855</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.4445775159289</v>
+        <v>401.9947110513364</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.0484634513665</v>
+        <v>363.6289000317166</v>
       </c>
       <c r="AD2" t="n">
-        <v>248087.7303448871</v>
+        <v>293803.3543064855</v>
       </c>
       <c r="AE2" t="n">
-        <v>339444.5775159289</v>
+        <v>401994.7110513364</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.213360339461956e-06</v>
+        <v>5.535446238114784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.966471354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>307048.4634513665</v>
+        <v>363628.9000317166</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.5332050355059</v>
+        <v>195.8897051039626</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.7533457053051</v>
+        <v>268.0249365669827</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.3986404310481</v>
+        <v>242.4450127964694</v>
       </c>
       <c r="AD2" t="n">
-        <v>163533.2050355059</v>
+        <v>195889.7051039626</v>
       </c>
       <c r="AE2" t="n">
-        <v>223753.3457053051</v>
+        <v>268024.9365669827</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.461954586807975e-06</v>
+        <v>7.129145813373436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.913736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202398.6404310481</v>
+        <v>242445.0127964694</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.2430240938528</v>
+        <v>196.5995241623095</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.7245514559416</v>
+        <v>268.9961423176192</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.2771556679401</v>
+        <v>243.3235280333613</v>
       </c>
       <c r="AD3" t="n">
-        <v>164243.0240938528</v>
+        <v>196599.5241623095</v>
       </c>
       <c r="AE3" t="n">
-        <v>224724.5514559416</v>
+        <v>268996.1423176192</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.463626776193301e-06</v>
+        <v>7.13258932531348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.910481770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>203277.1556679401</v>
+        <v>243323.5280333613</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.4269936104396</v>
+        <v>225.9496977765374</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.3377872232401</v>
+        <v>309.1543446948605</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.7736194602737</v>
+        <v>279.6490879381225</v>
       </c>
       <c r="AD2" t="n">
-        <v>203426.9936104396</v>
+        <v>225949.6977765374</v>
       </c>
       <c r="AE2" t="n">
-        <v>278337.7872232401</v>
+        <v>309154.3446948605</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.21438567002506e-06</v>
+        <v>6.368289818596048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251773.6194602737</v>
+        <v>279649.0879381225</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.4325896691715</v>
+        <v>201.1311708009201</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.0886557897926</v>
+        <v>275.196541170703</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.2247560092286</v>
+        <v>248.9321695222232</v>
       </c>
       <c r="AD3" t="n">
-        <v>167432.5896691715</v>
+        <v>201131.1708009201</v>
       </c>
       <c r="AE3" t="n">
-        <v>229088.6557897926</v>
+        <v>275196.541170703</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.518567478774027e-06</v>
+        <v>6.970929985182864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.654947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207224.7560092286</v>
+        <v>248932.1695222232</v>
       </c>
     </row>
   </sheetData>
